--- a/base de donnees.xlsx
+++ b/base de donnees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8531ac5596dd20f0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22177\Desktop\FADESOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{9FBFA809-FD11-4F59-9CE6-5A0826DB59C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9BB1A49-14A5-48BC-9B37-5D7C82306903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F75AE72-877F-457B-B690-0A71E93926F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FBC71830-A6D3-41E4-969C-19FA1017322C}"/>
   </bookViews>
@@ -762,13 +762,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>588317</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>236281</xdr:rowOff>
+      <xdr:rowOff>717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>286775</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>245807</xdr:rowOff>
+      <xdr:rowOff>10243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -783,8 +783,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4889930" y="3605878"/>
-          <a:ext cx="2156522" cy="1197590"/>
+          <a:off x="4889930" y="3370314"/>
+          <a:ext cx="2156522" cy="1218074"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1238,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F81BF-F210-45A8-B3C2-867E9C4B9B46}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="62" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,14 +1473,19 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>42</v>
       </c>
@@ -1491,11 +1496,11 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="19" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F21" s="5" t="s">
@@ -1503,11 +1508,11 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="K21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="F22" s="3" t="s">
@@ -1516,7 +1521,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1533,7 +1538,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1550,7 +1555,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1566,8 +1571,8 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>46</v>
+      <c r="K25" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1584,7 +1589,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="K26" s="8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1601,17 +1606,10 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="K27" s="8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="K28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
